--- a/Price_LIST_Eurapo_FINAL_v3.xlsx
+++ b/Price_LIST_Eurapo_FINAL_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\VR SHEKVETILI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA6FBBF-C797-4681-A51A-190238637AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8BEC6B-1A38-48B9-8C4B-4A4C31ADE0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4725" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25665" yWindow="-1470" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="38">
   <si>
     <t>EBH 020</t>
   </si>
@@ -129,37 +129,22 @@
     <t>5+2R</t>
   </si>
   <si>
-    <t>UCS 621</t>
-  </si>
-  <si>
-    <t>UCS 622</t>
-  </si>
-  <si>
-    <t>UCS 623</t>
-  </si>
-  <si>
-    <t>UCS 641</t>
-  </si>
-  <si>
-    <t>UCS 642</t>
-  </si>
-  <si>
-    <t>UCS 643</t>
-  </si>
-  <si>
-    <t>UCS 921</t>
-  </si>
-  <si>
-    <t>UCS 922</t>
-  </si>
-  <si>
-    <t>UCS 941</t>
-  </si>
-  <si>
-    <t>UCS 942</t>
-  </si>
-  <si>
     <t>Total Price</t>
+  </si>
+  <si>
+    <t>UCS-4T 641</t>
+  </si>
+  <si>
+    <t>UCS-4T 642</t>
+  </si>
+  <si>
+    <t>UCS-4T 643</t>
+  </si>
+  <si>
+    <t>UCS-4T 941</t>
+  </si>
+  <si>
+    <t>UCS-4T 942</t>
   </si>
 </sst>
 </file>
@@ -587,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -614,7 +599,7 @@
         <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1801,7 +1786,7 @@
         <v>397.1</v>
       </c>
       <c r="E67" s="4">
-        <f t="shared" ref="E67:E83" si="1">D67+C67</f>
+        <f t="shared" ref="E67:E78" si="1">D67+C67</f>
         <v>2516.7999999999997</v>
       </c>
     </row>
@@ -1914,181 +1899,91 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>32</v>
+      <c r="A74" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C74" s="3">
-        <v>876.7</v>
+        <v>914.9</v>
       </c>
       <c r="D74" s="3">
         <v>0</v>
       </c>
       <c r="E74" s="4">
         <f t="shared" si="1"/>
-        <v>876.7</v>
+        <v>914.9</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>33</v>
+      <c r="A75" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C75" s="3">
-        <v>924.4</v>
+        <v>970.8</v>
       </c>
       <c r="D75" s="3">
         <v>0</v>
       </c>
       <c r="E75" s="4">
         <f t="shared" si="1"/>
-        <v>924.4</v>
+        <v>970.8</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>34</v>
+      <c r="A76" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C76" s="3">
-        <v>970.8</v>
+      <c r="C76" s="5">
+        <v>1017.4</v>
       </c>
       <c r="D76" s="3">
         <v>0</v>
       </c>
       <c r="E76" s="4">
         <f t="shared" si="1"/>
-        <v>970.8</v>
+        <v>1017.4</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>35</v>
+      <c r="A77" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" s="3">
-        <v>914.9</v>
+        <v>16</v>
+      </c>
+      <c r="C77" s="5">
+        <v>1768.8</v>
       </c>
       <c r="D77" s="3">
         <v>0</v>
       </c>
       <c r="E77" s="4">
         <f t="shared" si="1"/>
-        <v>914.9</v>
+        <v>1768.8</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>36</v>
+      <c r="A78" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C78" s="3">
-        <v>970.8</v>
+      <c r="C78" s="5">
+        <v>1842.5</v>
       </c>
       <c r="D78" s="3">
         <v>0</v>
       </c>
       <c r="E78" s="4">
-        <f t="shared" si="1"/>
-        <v>970.8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" s="5">
-        <v>1017.4</v>
-      </c>
-      <c r="D79" s="3">
-        <v>0</v>
-      </c>
-      <c r="E79" s="4">
-        <f t="shared" si="1"/>
-        <v>1017.4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C80" s="5">
-        <v>1695.1</v>
-      </c>
-      <c r="D80" s="3">
-        <v>0</v>
-      </c>
-      <c r="E80" s="4">
-        <f t="shared" si="1"/>
-        <v>1695.1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" s="5">
-        <v>1768.8</v>
-      </c>
-      <c r="D81" s="3">
-        <v>0</v>
-      </c>
-      <c r="E81" s="4">
-        <f t="shared" si="1"/>
-        <v>1768.8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C82" s="5">
-        <v>1768.8</v>
-      </c>
-      <c r="D82" s="3">
-        <v>0</v>
-      </c>
-      <c r="E82" s="4">
-        <f t="shared" si="1"/>
-        <v>1768.8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C83" s="5">
-        <v>1842.5</v>
-      </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="4">
         <f t="shared" si="1"/>
         <v>1842.5</v>
       </c>
